--- a/Data Files/Excel_Files/Validation_Messages.xlsx
+++ b/Data Files/Excel_Files/Validation_Messages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52376032\Katalon Studio\Mytix_Android_Katalon_Sripts\Data Files\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F436A017-0862-4793-8179-2BE5958FDA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9712AC32-360C-417D-BF69-894AC220AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Message_ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>~"!@#$%^&amp;*()_+=|:&lt;,&gt;.?/{}-</t>
+  </si>
+  <si>
+    <t>Password cannot be empty.</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,6 +550,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
